--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X18 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X18 2200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>135w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,37 +135,401 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>135w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
     <t>submax</t>
   </si>
   <si>
     <t>165w, submax 2</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,20 +537,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,6 +847,1272 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$76</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000949074074074074</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.00106481481481481</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00118055555555556</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.0012962962962963</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00141203703703704</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00164351851851852</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00175925925925926</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.001875</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00199074074074074</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00210648148148148</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00233796296296296</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.0024537037037037</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00256944444444444</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00268518518518518</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00280092592592593</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.00291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00303240740740741</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00314814814814815</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00326388888888889</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00337962962962963</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00349537037037037</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00361111111111111</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00372685185185185</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00384259259259259</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00418981481481481</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.0044212962962963</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00453703703703704</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00465277777777778</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00476851851851852</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00488425925925926</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00511574074074074</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00523148148148148</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00534722222222222</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00546296296296296</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.0055787037037037</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00581018518518519</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.00604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00615740740740741</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00627314814814815</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00650462962962963</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00662037037037037</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00673611111111111</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00685185185185185</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00696759259259259</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.00719907407407407</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00731481481481481</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00743055555555555</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.0075462962962963</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00766203703703704</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00789351851851852</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00800925925925926</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.008125</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00824074074074074</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00835648148148148</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00847222222222222</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00858796296296296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.71</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.02</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.51</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.81</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.78</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.77</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="826993448"/>
+        <c:axId val="641076067"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="826993448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641076067"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641076067"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826993448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="139700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,21 +2396,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M56" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -593,52 +2491,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -655,12 +2553,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.43947916666666664</v>
+        <v>0.439479166666667</v>
       </c>
       <c r="C6">
         <v>111.38</v>
@@ -708,7 +2606,7 @@
         <v>38.4</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -726,12 +2624,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>6.018518518518519E-4</v>
+        <v>0.000601851851851852</v>
       </c>
       <c r="B7" s="1">
-        <v>0.4400810185185185</v>
+        <v>0.440081018518518</v>
       </c>
       <c r="C7">
         <v>98.32</v>
@@ -758,7 +2656,7 @@
         <v>133.35</v>
       </c>
       <c r="K7">
-        <v>81.650000000000006</v>
+        <v>81.65</v>
       </c>
       <c r="L7">
         <v>121.75</v>
@@ -770,7 +2668,7 @@
         <v>2107.31</v>
       </c>
       <c r="O7">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="P7">
         <v>128.07</v>
@@ -794,12 +2692,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>7.175925925925927E-4</v>
+        <v>0.000717592592592593</v>
       </c>
       <c r="B8" s="1">
-        <v>0.44019675925925927</v>
+        <v>0.440196759259259</v>
       </c>
       <c r="C8">
         <v>104.92</v>
@@ -832,13 +2730,13 @@
         <v>118.03</v>
       </c>
       <c r="M8">
-        <v>1078.5899999999999</v>
+        <v>1078.59</v>
       </c>
       <c r="N8">
         <v>1940.24</v>
       </c>
       <c r="O8">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="P8">
         <v>130.18</v>
@@ -862,12 +2760,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>8.3333333333333339E-4</v>
+        <v>0.000833333333333333</v>
       </c>
       <c r="B9" s="1">
-        <v>0.44031250000000005</v>
+        <v>0.4403125</v>
       </c>
       <c r="C9">
         <v>115.77</v>
@@ -930,12 +2828,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>9.4907407407407408E-4</v>
+        <v>0.000949074074074074</v>
       </c>
       <c r="B10" s="1">
-        <v>0.44042824074074072</v>
+        <v>0.440428240740741</v>
       </c>
       <c r="C10">
         <v>117.32</v>
@@ -998,18 +2896,18 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>1.0648148148148147E-3</v>
+        <v>0.00106481481481481</v>
       </c>
       <c r="B11" s="1">
-        <v>0.44054398148148149</v>
+        <v>0.440543981481481</v>
       </c>
       <c r="C11">
         <v>118.51</v>
       </c>
       <c r="D11">
-        <v>67.010000000000005</v>
+        <v>67.01</v>
       </c>
       <c r="E11">
         <v>7.94</v>
@@ -1066,12 +2964,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>1.1805555555555556E-3</v>
+        <v>0.00118055555555556</v>
       </c>
       <c r="B12" s="1">
-        <v>0.44065972222222222</v>
+        <v>0.440659722222222</v>
       </c>
       <c r="C12">
         <v>114.4</v>
@@ -1095,7 +2993,7 @@
         <v>93.31</v>
       </c>
       <c r="J12">
-        <v>132.41999999999999</v>
+        <v>132.42</v>
       </c>
       <c r="K12">
         <v>78</v>
@@ -1113,7 +3011,7 @@
         <v>5.23</v>
       </c>
       <c r="P12">
-        <v>130.72999999999999</v>
+        <v>130.73</v>
       </c>
       <c r="Q12">
         <v>47.44</v>
@@ -1134,12 +3032,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>1.2962962962962963E-3</v>
+        <v>0.0012962962962963</v>
       </c>
       <c r="B13" s="1">
-        <v>0.44077546296296299</v>
+        <v>0.440775462962963</v>
       </c>
       <c r="C13">
         <v>115.11</v>
@@ -1166,7 +3064,7 @@
         <v>134</v>
       </c>
       <c r="K13">
-        <v>78.400000000000006</v>
+        <v>78.4</v>
       </c>
       <c r="L13">
         <v>127.51</v>
@@ -1202,18 +3100,18 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.4120370370370369E-3</v>
+        <v>0.00141203703703704</v>
       </c>
       <c r="B14" s="1">
-        <v>0.44089120370370366</v>
+        <v>0.440891203703704</v>
       </c>
       <c r="C14">
         <v>108.58</v>
       </c>
       <c r="D14">
-        <v>68.180000000000007</v>
+        <v>68.18</v>
       </c>
       <c r="E14">
         <v>7.4</v>
@@ -1270,12 +3168,12 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.5277777777777779E-3</v>
+        <v>0.00152777777777778</v>
       </c>
       <c r="B15" s="1">
-        <v>0.44100694444444444</v>
+        <v>0.441006944444444</v>
       </c>
       <c r="C15">
         <v>106.42</v>
@@ -1302,13 +3200,13 @@
         <v>134.18</v>
       </c>
       <c r="K15">
-        <v>80.819999999999993</v>
+        <v>80.82</v>
       </c>
       <c r="L15">
         <v>122.96</v>
       </c>
       <c r="M15">
-        <v>1040.8499999999999</v>
+        <v>1040.85</v>
       </c>
       <c r="N15">
         <v>1872.34</v>
@@ -1338,12 +3236,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.6435185185185183E-3</v>
+        <v>0.00164351851851852</v>
       </c>
       <c r="B16" s="1">
-        <v>0.44112268518518521</v>
+        <v>0.441122685185185</v>
       </c>
       <c r="C16">
         <v>115.49</v>
@@ -1406,12 +3304,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.7592592592592592E-3</v>
+        <v>0.00175925925925926</v>
       </c>
       <c r="B17" s="1">
-        <v>0.44123842592592594</v>
+        <v>0.441238425925926</v>
       </c>
       <c r="C17">
         <v>107.05</v>
@@ -1438,7 +3336,7 @@
         <v>131.82</v>
       </c>
       <c r="K17">
-        <v>78.819999999999993</v>
+        <v>78.82</v>
       </c>
       <c r="L17">
         <v>120.76</v>
@@ -1456,7 +3354,7 @@
         <v>122.95</v>
       </c>
       <c r="Q17">
-        <v>39.450000000000003</v>
+        <v>39.45</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1474,18 +3372,18 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.8750000000000001E-3</v>
+        <v>0.001875</v>
       </c>
       <c r="B18" s="1">
-        <v>0.44135416666666666</v>
+        <v>0.441354166666667</v>
       </c>
       <c r="C18">
         <v>112.88</v>
       </c>
       <c r="D18">
-        <v>64.349999999999994</v>
+        <v>64.35</v>
       </c>
       <c r="E18">
         <v>7.27</v>
@@ -1503,7 +3401,7 @@
         <v>88.45</v>
       </c>
       <c r="J18">
-        <v>131.41999999999999</v>
+        <v>131.42</v>
       </c>
       <c r="K18">
         <v>78</v>
@@ -1542,12 +3440,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.9907407407407408E-3</v>
+        <v>0.00199074074074074</v>
       </c>
       <c r="B19" s="1">
-        <v>0.44146990740740738</v>
+        <v>0.441469907407407</v>
       </c>
       <c r="C19">
         <v>113.09</v>
@@ -1559,7 +3457,7 @@
         <v>7.61</v>
       </c>
       <c r="F19">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="G19">
         <v>53.87</v>
@@ -1571,7 +3469,7 @@
         <v>96.41</v>
       </c>
       <c r="J19">
-        <v>133.41999999999999</v>
+        <v>133.42</v>
       </c>
       <c r="K19">
         <v>78.84</v>
@@ -1592,7 +3490,7 @@
         <v>124.07</v>
       </c>
       <c r="Q19">
-        <v>37.119999999999997</v>
+        <v>37.12</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1610,12 +3508,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>2.1064814814814813E-3</v>
+        <v>0.00210648148148148</v>
       </c>
       <c r="B20" s="1">
-        <v>0.44158564814814816</v>
+        <v>0.441585648148148</v>
       </c>
       <c r="C20">
         <v>109.5</v>
@@ -1678,12 +3576,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>2.2222222222222222E-3</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="B21" s="1">
-        <v>0.44170138888888894</v>
+        <v>0.441701388888889</v>
       </c>
       <c r="C21">
         <v>105.02</v>
@@ -1728,7 +3626,7 @@
         <v>127.3</v>
       </c>
       <c r="Q21">
-        <v>40.630000000000003</v>
+        <v>40.63</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -1746,12 +3644,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>2.3379629629629631E-3</v>
+        <v>0.00233796296296296</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4418171296296296</v>
+        <v>0.44181712962963</v>
       </c>
       <c r="C22">
         <v>101.47</v>
@@ -1778,7 +3676,7 @@
         <v>134</v>
       </c>
       <c r="K22">
-        <v>81.760000000000005</v>
+        <v>81.76</v>
       </c>
       <c r="L22">
         <v>117.59</v>
@@ -1814,12 +3712,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.4537037037037036E-3</v>
+        <v>0.0024537037037037</v>
       </c>
       <c r="B23" s="1">
-        <v>0.44193287037037038</v>
+        <v>0.44193287037037</v>
       </c>
       <c r="C23">
         <v>104.76</v>
@@ -1852,13 +3750,13 @@
         <v>117.11</v>
       </c>
       <c r="M23">
-        <v>1111.8900000000001</v>
+        <v>1111.89</v>
       </c>
       <c r="N23">
         <v>2000.14</v>
       </c>
       <c r="O23">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="P23">
         <v>122.62</v>
@@ -1868,71 +3766,71 @@
       </c>
       <c r="U23" s="2">
         <f>AVERAGE(C6:C23)</f>
-        <v>109.99944444444445</v>
+        <v>109.999444444444</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" ref="V23:AI23" si="0">AVERAGE(D6:D23)</f>
-        <v>65.995000000000005</v>
+        <v>65.995</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>7.2672222222222222</v>
+        <v>7.26722222222222</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="0"/>
-        <v>4.0411111111111113</v>
+        <v>4.04111111111111</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="0"/>
-        <v>53.729444444444447</v>
+        <v>53.7294444444444</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="0"/>
-        <v>375.10499999999996</v>
+        <v>375.105</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="0"/>
-        <v>95.475555555555573</v>
+        <v>95.4755555555556</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="0"/>
-        <v>133.28055555555557</v>
+        <v>133.280555555556</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="0"/>
-        <v>79.414444444444428</v>
+        <v>79.4144444444444</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="0"/>
-        <v>122.81611111111111</v>
+        <v>122.816111111111</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="0"/>
-        <v>1007.451111111111</v>
+        <v>1007.45111111111</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="0"/>
-        <v>1812.267222222222</v>
+        <v>1812.26722222222</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="0"/>
-        <v>5.0988888888888884</v>
+        <v>5.09888888888889</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" si="0"/>
-        <v>126.82777777777775</v>
+        <v>126.827777777778</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="0"/>
-        <v>41.332777777777785</v>
+        <v>41.3327777777778</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.5694444444444445E-3</v>
+        <v>0.00256944444444444</v>
       </c>
       <c r="B24" s="1">
-        <v>0.4420486111111111</v>
+        <v>0.442048611111111</v>
       </c>
       <c r="C24">
         <v>101.64</v>
@@ -1977,7 +3875,7 @@
         <v>122.42</v>
       </c>
       <c r="Q24">
-        <v>37.409999999999997</v>
+        <v>37.41</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -1995,12 +3893,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.685185185185185E-3</v>
+        <v>0.00268518518518518</v>
       </c>
       <c r="B25" s="1">
-        <v>0.44216435185185188</v>
+        <v>0.442164351851852</v>
       </c>
       <c r="C25">
         <v>116.31</v>
@@ -2012,7 +3910,7 @@
         <v>7.37</v>
       </c>
       <c r="F25">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G25">
         <v>53.48</v>
@@ -2027,7 +3925,7 @@
         <v>132</v>
       </c>
       <c r="K25">
-        <v>75.739999999999995</v>
+        <v>75.74</v>
       </c>
       <c r="L25">
         <v>118.44</v>
@@ -2039,7 +3937,7 @@
         <v>1717.5</v>
       </c>
       <c r="O25">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="P25">
         <v>121.13</v>
@@ -2048,7 +3946,7 @@
         <v>41.43</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -2066,15 +3964,15 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.8009259259259259E-3</v>
+        <v>0.00280092592592593</v>
       </c>
       <c r="B26" s="1">
-        <v>0.44228009259259254</v>
+        <v>0.442280092592593</v>
       </c>
       <c r="C26">
-        <v>136.36000000000001</v>
+        <v>136.36</v>
       </c>
       <c r="D26">
         <v>67.86</v>
@@ -2098,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="K26">
-        <v>70.349999999999994</v>
+        <v>70.35</v>
       </c>
       <c r="L26">
         <v>125.16</v>
@@ -2134,15 +4032,15 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.9166666666666668E-3</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44239583333333332</v>
+        <v>0.442395833333333</v>
       </c>
       <c r="C27">
-        <v>149.72999999999999</v>
+        <v>149.73</v>
       </c>
       <c r="D27">
         <v>72.27</v>
@@ -2166,7 +4064,7 @@
         <v>132.24</v>
       </c>
       <c r="K27">
-        <v>68.239999999999995</v>
+        <v>68.24</v>
       </c>
       <c r="L27">
         <v>133.04</v>
@@ -2175,7 +4073,7 @@
         <v>611.41</v>
       </c>
       <c r="N27">
-        <v>1099.8499999999999</v>
+        <v>1099.85</v>
       </c>
       <c r="O27">
         <v>6.9</v>
@@ -2202,12 +4100,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>3.0324074074074073E-3</v>
+        <v>0.00303240740740741</v>
       </c>
       <c r="B28" s="1">
-        <v>0.4425115740740741</v>
+        <v>0.442511574074074</v>
       </c>
       <c r="C28">
         <v>148.41</v>
@@ -2237,10 +4135,10 @@
         <v>67.12</v>
       </c>
       <c r="L28">
-        <v>133.66999999999999</v>
+        <v>133.67</v>
       </c>
       <c r="M28">
-        <v>611.19000000000005</v>
+        <v>611.19</v>
       </c>
       <c r="N28">
         <v>1099.44</v>
@@ -2270,18 +4168,18 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>3.1481481481481482E-3</v>
+        <v>0.00314814814814815</v>
       </c>
       <c r="B29" s="1">
-        <v>0.44262731481481482</v>
+        <v>0.442627314814815</v>
       </c>
       <c r="C29">
         <v>145.13</v>
       </c>
       <c r="D29">
-        <v>70.739999999999995</v>
+        <v>70.74</v>
       </c>
       <c r="E29">
         <v>10.27</v>
@@ -2305,7 +4203,7 @@
         <v>62.88</v>
       </c>
       <c r="L29">
-        <v>130.69999999999999</v>
+        <v>130.7</v>
       </c>
       <c r="M29">
         <v>611.74</v>
@@ -2338,15 +4236,15 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>3.2638888888888891E-3</v>
+        <v>0.00326388888888889</v>
       </c>
       <c r="B30" s="1">
-        <v>0.44274305555555554</v>
+        <v>0.442743055555556</v>
       </c>
       <c r="C30">
-        <v>143.33000000000001</v>
+        <v>143.33</v>
       </c>
       <c r="D30">
         <v>68.58</v>
@@ -2406,12 +4304,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.37962962962963E-3</v>
+        <v>0.00337962962962963</v>
       </c>
       <c r="B31" s="1">
-        <v>0.44285879629629626</v>
+        <v>0.442858796296296</v>
       </c>
       <c r="C31">
         <v>143.4</v>
@@ -2453,7 +4351,7 @@
         <v>6.85</v>
       </c>
       <c r="P31">
-        <v>128.19999999999999</v>
+        <v>128.2</v>
       </c>
       <c r="Q31">
         <v>49.13</v>
@@ -2474,12 +4372,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.4953703703703705E-3</v>
+        <v>0.00349537037037037</v>
       </c>
       <c r="B32" s="1">
-        <v>0.44297453703703704</v>
+        <v>0.442974537037037</v>
       </c>
       <c r="C32">
         <v>143.09</v>
@@ -2512,16 +4410,16 @@
         <v>131.46</v>
       </c>
       <c r="M32">
-        <v>647.55999999999995</v>
+        <v>647.56</v>
       </c>
       <c r="N32">
-        <v>1164.8800000000001</v>
+        <v>1164.88</v>
       </c>
       <c r="O32">
         <v>6.74</v>
       </c>
       <c r="P32">
-        <v>128.16999999999999</v>
+        <v>128.17</v>
       </c>
       <c r="Q32">
         <v>45.79</v>
@@ -2542,12 +4440,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.6111111111111114E-3</v>
+        <v>0.00361111111111111</v>
       </c>
       <c r="B33" s="1">
-        <v>0.44309027777777782</v>
+        <v>0.443090277777778</v>
       </c>
       <c r="C33">
         <v>142.37</v>
@@ -2580,10 +4478,10 @@
         <v>128.57</v>
       </c>
       <c r="M33">
-        <v>635.07000000000005</v>
+        <v>635.07</v>
       </c>
       <c r="N33">
-        <v>1142.4000000000001</v>
+        <v>1142.4</v>
       </c>
       <c r="O33">
         <v>6.28</v>
@@ -2610,12 +4508,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.7268518518518514E-3</v>
+        <v>0.00372685185185185</v>
       </c>
       <c r="B34" s="1">
-        <v>0.44320601851851849</v>
+        <v>0.443206018518518</v>
       </c>
       <c r="C34">
         <v>143.04</v>
@@ -2642,13 +4540,13 @@
         <v>135.79</v>
       </c>
       <c r="K34">
-        <v>69.209999999999994</v>
+        <v>69.21</v>
       </c>
       <c r="L34">
-        <v>128.36000000000001</v>
+        <v>128.36</v>
       </c>
       <c r="M34">
-        <v>653.04999999999995</v>
+        <v>653.05</v>
       </c>
       <c r="N34">
         <v>1174.75</v>
@@ -2660,7 +4558,7 @@
         <v>130.4</v>
       </c>
       <c r="Q34">
-        <v>36.979999999999997</v>
+        <v>36.98</v>
       </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -2678,12 +4576,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.8425925925925923E-3</v>
+        <v>0.00384259259259259</v>
       </c>
       <c r="B35" s="1">
-        <v>0.44332175925925926</v>
+        <v>0.443321759259259</v>
       </c>
       <c r="C35">
         <v>141.74</v>
@@ -2707,7 +4605,7 @@
         <v>109.73</v>
       </c>
       <c r="J35">
-        <v>134.47999999999999</v>
+        <v>134.48</v>
       </c>
       <c r="K35">
         <v>70.17</v>
@@ -2746,18 +4644,18 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.9583333333333337E-3</v>
+        <v>0.00395833333333333</v>
       </c>
       <c r="B36" s="1">
-        <v>0.44343749999999998</v>
+        <v>0.4434375</v>
       </c>
       <c r="C36">
         <v>138.28</v>
       </c>
       <c r="D36">
-        <v>72.900000000000006</v>
+        <v>72.9</v>
       </c>
       <c r="E36">
         <v>10.08</v>
@@ -2775,7 +4673,7 @@
         <v>98.42</v>
       </c>
       <c r="J36">
-        <v>132.41999999999999</v>
+        <v>132.42</v>
       </c>
       <c r="K36">
         <v>71.63</v>
@@ -2787,7 +4685,7 @@
         <v>675.07</v>
       </c>
       <c r="N36">
-        <v>1214.3599999999999</v>
+        <v>1214.36</v>
       </c>
       <c r="O36">
         <v>6.61</v>
@@ -2814,15 +4712,15 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>4.0740740740740746E-3</v>
+        <v>0.00407407407407407</v>
       </c>
       <c r="B37" s="1">
-        <v>0.44355324074074076</v>
+        <v>0.443553240740741</v>
       </c>
       <c r="C37">
-        <v>139.27000000000001</v>
+        <v>139.27</v>
       </c>
       <c r="D37">
         <v>69.19</v>
@@ -2882,12 +4780,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>4.1898148148148146E-3</v>
+        <v>0.00418981481481481</v>
       </c>
       <c r="B38" s="1">
-        <v>0.44366898148148143</v>
+        <v>0.443668981481481</v>
       </c>
       <c r="C38">
         <v>140.82</v>
@@ -2896,7 +4794,7 @@
         <v>68.95</v>
       </c>
       <c r="E38">
-        <v>9.7100000000000009</v>
+        <v>9.71</v>
       </c>
       <c r="F38">
         <v>5.4</v>
@@ -2950,15 +4848,15 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>4.3055555555555555E-3</v>
+        <v>0.00430555555555556</v>
       </c>
       <c r="B39" s="1">
-        <v>0.44378472222222221</v>
+        <v>0.443784722222222</v>
       </c>
       <c r="C39">
-        <v>146.61000000000001</v>
+        <v>146.61</v>
       </c>
       <c r="D39">
         <v>70.23</v>
@@ -2991,7 +4889,7 @@
         <v>641.59</v>
       </c>
       <c r="N39">
-        <v>1154.1199999999999</v>
+        <v>1154.12</v>
       </c>
       <c r="O39">
         <v>6.56</v>
@@ -3018,15 +4916,15 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.4212962962962956E-3</v>
+        <v>0.0044212962962963</v>
       </c>
       <c r="B40" s="1">
-        <v>0.44390046296296298</v>
+        <v>0.443900462962963</v>
       </c>
       <c r="C40">
-        <v>147.19999999999999</v>
+        <v>147.2</v>
       </c>
       <c r="D40">
         <v>71.36</v>
@@ -3086,18 +4984,18 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.5370370370370365E-3</v>
+        <v>0.00453703703703704</v>
       </c>
       <c r="B41" s="1">
-        <v>0.4440162037037037</v>
+        <v>0.444016203703704</v>
       </c>
       <c r="C41">
-        <v>145.22999999999999</v>
+        <v>145.23</v>
       </c>
       <c r="D41">
-        <v>73.010000000000005</v>
+        <v>73.01</v>
       </c>
       <c r="E41">
         <v>10.6</v>
@@ -3124,7 +5022,7 @@
         <v>131</v>
       </c>
       <c r="M41">
-        <v>581.20000000000005</v>
+        <v>581.2</v>
       </c>
       <c r="N41">
         <v>1045.5</v>
@@ -3154,18 +5052,18 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.6527777777777774E-3</v>
+        <v>0.00465277777777778</v>
       </c>
       <c r="B42" s="1">
-        <v>0.44413194444444443</v>
+        <v>0.444131944444444</v>
       </c>
       <c r="C42">
-        <v>144.08000000000001</v>
+        <v>144.08</v>
       </c>
       <c r="D42">
-        <v>71.510000000000005</v>
+        <v>71.51</v>
       </c>
       <c r="E42">
         <v>10.3</v>
@@ -3192,7 +5090,7 @@
         <v>130.34</v>
       </c>
       <c r="M42">
-        <v>598.20000000000005</v>
+        <v>598.2</v>
       </c>
       <c r="N42">
         <v>1076.08</v>
@@ -3222,12 +5120,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.7685185185185183E-3</v>
+        <v>0.00476851851851852</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44424768518518515</v>
+        <v>0.444247685185185</v>
       </c>
       <c r="C43">
         <v>148.75</v>
@@ -3245,7 +5143,7 @@
         <v>54.58</v>
       </c>
       <c r="H43">
-        <v>273.60000000000002</v>
+        <v>273.6</v>
       </c>
       <c r="I43">
         <v>101.73</v>
@@ -3290,18 +5188,18 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.8842592592592592E-3</v>
+        <v>0.00488425925925926</v>
       </c>
       <c r="B44" s="1">
-        <v>0.44436342592592593</v>
+        <v>0.444363425925926</v>
       </c>
       <c r="C44">
         <v>148.85</v>
       </c>
       <c r="D44">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="E44">
         <v>10.77</v>
@@ -3313,13 +5211,13 @@
         <v>54.95</v>
       </c>
       <c r="H44">
-        <v>306.39999999999998</v>
+        <v>306.4</v>
       </c>
       <c r="I44">
         <v>104.39</v>
       </c>
       <c r="J44">
-        <v>133.80000000000001</v>
+        <v>133.8</v>
       </c>
       <c r="K44">
         <v>67.08</v>
@@ -3358,12 +5256,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="B45" s="1">
-        <v>0.4444791666666667</v>
+        <v>0.444479166666667</v>
       </c>
       <c r="C45">
         <v>149.18</v>
@@ -3387,7 +5285,7 @@
         <v>101.05</v>
       </c>
       <c r="J45">
-        <v>130.47999999999999</v>
+        <v>130.48</v>
       </c>
       <c r="K45">
         <v>61</v>
@@ -3399,7 +5297,7 @@
         <v>575.86</v>
       </c>
       <c r="N45">
-        <v>1035.9000000000001</v>
+        <v>1035.9</v>
       </c>
       <c r="O45">
         <v>6.36</v>
@@ -3408,7 +5306,7 @@
         <v>125.62</v>
       </c>
       <c r="Q45">
-        <v>39.979999999999997</v>
+        <v>39.98</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -3426,15 +5324,15 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>5.115740740740741E-3</v>
+        <v>0.00511574074074074</v>
       </c>
       <c r="B46" s="1">
-        <v>0.44459490740740742</v>
+        <v>0.444594907407407</v>
       </c>
       <c r="C46">
-        <v>146.83000000000001</v>
+        <v>146.83</v>
       </c>
       <c r="D46">
         <v>74.14</v>
@@ -3473,7 +5371,7 @@
         <v>6.51</v>
       </c>
       <c r="P46">
-        <v>128.13999999999999</v>
+        <v>128.14</v>
       </c>
       <c r="Q46">
         <v>39.99</v>
@@ -3494,12 +5392,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>5.2314814814814819E-3</v>
+        <v>0.00523148148148148</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44471064814814815</v>
+        <v>0.444710648148148</v>
       </c>
       <c r="C47">
         <v>147.09</v>
@@ -3547,7 +5445,7 @@
         <v>41.76</v>
       </c>
       <c r="S47" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -3565,12 +5463,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.347222222222222E-3</v>
+        <v>0.00534722222222222</v>
       </c>
       <c r="B48" s="1">
-        <v>0.44482638888888887</v>
+        <v>0.444826388888889</v>
       </c>
       <c r="C48">
         <v>147.78</v>
@@ -3603,7 +5501,7 @@
         <v>134.4</v>
       </c>
       <c r="M48">
-        <v>585.54999999999995</v>
+        <v>585.55</v>
       </c>
       <c r="N48">
         <v>1053.33</v>
@@ -3615,7 +5513,7 @@
         <v>127.41</v>
       </c>
       <c r="Q48">
-        <v>37.119999999999997</v>
+        <v>37.12</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -3633,15 +5531,15 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.4629629629629637E-3</v>
+        <v>0.00546296296296296</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44494212962962965</v>
+        <v>0.44494212962963</v>
       </c>
       <c r="C49">
-        <v>150.02000000000001</v>
+        <v>150.02</v>
       </c>
       <c r="D49">
         <v>74.48</v>
@@ -3701,12 +5599,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.5787037037037038E-3</v>
+        <v>0.0055787037037037</v>
       </c>
       <c r="B50" s="1">
-        <v>0.44505787037037042</v>
+        <v>0.44505787037037</v>
       </c>
       <c r="C50">
         <v>158.1</v>
@@ -3754,7 +5652,7 @@
         <v>32.26</v>
       </c>
       <c r="S50" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3772,18 +5670,18 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.6944444444444438E-3</v>
+        <v>0.00569444444444444</v>
       </c>
       <c r="B51" s="1">
-        <v>0.44517361111111109</v>
+        <v>0.445173611111111</v>
       </c>
       <c r="C51">
         <v>162.6</v>
       </c>
       <c r="D51">
-        <v>74.989999999999995</v>
+        <v>74.99</v>
       </c>
       <c r="E51">
         <v>12.19</v>
@@ -3822,7 +5720,7 @@
         <v>124.68</v>
       </c>
       <c r="Q51">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -3840,12 +5738,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.8101851851851856E-3</v>
+        <v>0.00581018518518519</v>
       </c>
       <c r="B52" s="1">
-        <v>0.44528935185185187</v>
+        <v>0.445289351851852</v>
       </c>
       <c r="C52">
         <v>164.32</v>
@@ -3890,10 +5788,10 @@
         <v>125.07</v>
       </c>
       <c r="Q52">
-        <v>37.380000000000003</v>
+        <v>37.38</v>
       </c>
       <c r="S52" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -3911,12 +5809,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.9259259259259256E-3</v>
+        <v>0.00592592592592593</v>
       </c>
       <c r="B53" s="1">
-        <v>0.44540509259259259</v>
+        <v>0.445405092592593</v>
       </c>
       <c r="C53">
         <v>167.82</v>
@@ -3961,10 +5859,10 @@
         <v>127.7</v>
       </c>
       <c r="Q53">
-        <v>34.880000000000003</v>
+        <v>34.88</v>
       </c>
       <c r="S53" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -3982,12 +5880,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>6.0416666666666665E-3</v>
+        <v>0.00604166666666667</v>
       </c>
       <c r="B54" s="1">
-        <v>0.44552083333333337</v>
+        <v>0.445520833333333</v>
       </c>
       <c r="C54">
         <v>170.75</v>
@@ -4050,12 +5948,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>6.1574074074074074E-3</v>
+        <v>0.00615740740740741</v>
       </c>
       <c r="B55" s="1">
-        <v>0.44563657407407403</v>
+        <v>0.445636574074074</v>
       </c>
       <c r="C55">
         <v>171.58</v>
@@ -4118,18 +6016,18 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>6.2731481481481484E-3</v>
+        <v>0.00627314814814815</v>
       </c>
       <c r="B56" s="1">
-        <v>0.44575231481481481</v>
+        <v>0.445752314814815</v>
       </c>
       <c r="C56">
         <v>175.28</v>
       </c>
       <c r="D56">
-        <v>76.400000000000006</v>
+        <v>76.4</v>
       </c>
       <c r="E56">
         <v>13.39</v>
@@ -4141,7 +6039,7 @@
         <v>56.5</v>
       </c>
       <c r="H56">
-        <v>268.97000000000003</v>
+        <v>268.97</v>
       </c>
       <c r="I56">
         <v>116.76</v>
@@ -4186,12 +6084,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.3888888888888884E-3</v>
+        <v>0.00638888888888889</v>
       </c>
       <c r="B57" s="1">
-        <v>0.44586805555555559</v>
+        <v>0.445868055555556</v>
       </c>
       <c r="C57">
         <v>179.65</v>
@@ -4254,12 +6152,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.5046296296296302E-3</v>
+        <v>0.00650462962962963</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44598379629629631</v>
+        <v>0.445983796296296</v>
       </c>
       <c r="C58">
         <v>183.08</v>
@@ -4289,7 +6187,7 @@
         <v>57</v>
       </c>
       <c r="L58">
-        <v>135.30000000000001</v>
+        <v>135.3</v>
       </c>
       <c r="M58">
         <v>436.26</v>
@@ -4307,7 +6205,7 @@
         <v>43.89</v>
       </c>
       <c r="S58" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -4325,12 +6223,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.6203703703703702E-3</v>
+        <v>0.00662037037037037</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44609953703703703</v>
+        <v>0.446099537037037</v>
       </c>
       <c r="C59">
         <v>185.49</v>
@@ -4354,7 +6252,7 @@
         <v>104.44</v>
       </c>
       <c r="J59">
-        <v>130.77000000000001</v>
+        <v>130.77</v>
       </c>
       <c r="K59">
         <v>57.23</v>
@@ -4378,75 +6276,75 @@
         <v>48.12</v>
       </c>
       <c r="S59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U59" s="2">
         <f>AVERAGE(C53:C59)</f>
-        <v>176.23571428571427</v>
+        <v>176.235714285714</v>
       </c>
       <c r="V59" s="2">
         <f t="shared" ref="V59:AI59" si="1">AVERAGE(D53:D59)</f>
-        <v>74.741428571428585</v>
+        <v>74.7414285714286</v>
       </c>
       <c r="W59" s="2">
         <f t="shared" si="1"/>
-        <v>13.168571428571429</v>
+        <v>13.1685714285714</v>
       </c>
       <c r="X59" s="2">
         <f t="shared" si="1"/>
-        <v>7.3214285714285712</v>
+        <v>7.32142857142857</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="1"/>
-        <v>55.932857142857138</v>
+        <v>55.9328571428571</v>
       </c>
       <c r="Z59" s="2">
         <f t="shared" si="1"/>
-        <v>268.69428571428574</v>
+        <v>268.694285714286</v>
       </c>
       <c r="AA59" s="2">
         <f t="shared" si="1"/>
-        <v>112.32571428571428</v>
+        <v>112.325714285714</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="1"/>
-        <v>131.72142857142856</v>
+        <v>131.721428571429</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="1"/>
-        <v>57.535714285714285</v>
+        <v>57.5357142857143</v>
       </c>
       <c r="AD59" s="2">
         <f t="shared" si="1"/>
-        <v>133.64428571428573</v>
+        <v>133.644285714286</v>
       </c>
       <c r="AE59" s="2">
         <f t="shared" si="1"/>
-        <v>458.02428571428567</v>
+        <v>458.024285714286</v>
       </c>
       <c r="AF59" s="2">
         <f t="shared" si="1"/>
-        <v>823.92142857142858</v>
+        <v>823.921428571429</v>
       </c>
       <c r="AG59" s="2">
         <f t="shared" si="1"/>
-        <v>7.6157142857142848</v>
+        <v>7.61571428571428</v>
       </c>
       <c r="AH59" s="2">
         <f t="shared" si="1"/>
-        <v>125.19000000000001</v>
+        <v>125.19</v>
       </c>
       <c r="AI59" s="2">
         <f t="shared" si="1"/>
-        <v>38.758571428571429</v>
+        <v>38.7585714285714</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.7361111111111103E-3</v>
+        <v>0.00673611111111111</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44621527777777775</v>
+        <v>0.446215277777778</v>
       </c>
       <c r="C60">
         <v>187.74</v>
@@ -4464,7 +6362,7 @@
         <v>55.53</v>
       </c>
       <c r="H60">
-        <v>260.64999999999998</v>
+        <v>260.65</v>
       </c>
       <c r="I60">
         <v>108.95</v>
@@ -4494,7 +6392,7 @@
         <v>32.24</v>
       </c>
       <c r="S60" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -4512,12 +6410,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.851851851851852E-3</v>
+        <v>0.00685185185185185</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44633101851851853</v>
+        <v>0.446331018518519</v>
       </c>
       <c r="C61">
         <v>190.04</v>
@@ -4547,7 +6445,7 @@
         <v>58</v>
       </c>
       <c r="L61">
-        <v>128.77000000000001</v>
+        <v>128.77</v>
       </c>
       <c r="M61">
         <v>447.68</v>
@@ -4562,7 +6460,7 @@
         <v>115.87</v>
       </c>
       <c r="Q61">
-        <v>16.649999999999999</v>
+        <v>16.65</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -4580,12 +6478,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.9675925925925921E-3</v>
+        <v>0.00696759259259259</v>
       </c>
       <c r="B62" s="1">
-        <v>0.44644675925925931</v>
+        <v>0.446446759259259</v>
       </c>
       <c r="C62">
         <v>192.78</v>
@@ -4633,7 +6531,7 @@
         <v>20.88</v>
       </c>
       <c r="S62" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -4651,18 +6549,18 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>7.083333333333333E-3</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="B63" s="1">
-        <v>0.44656249999999997</v>
+        <v>0.4465625</v>
       </c>
       <c r="C63">
         <v>193.8</v>
       </c>
       <c r="D63">
-        <v>68.349999999999994</v>
+        <v>68.35</v>
       </c>
       <c r="E63">
         <v>13.25</v>
@@ -4719,12 +6617,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>7.1990740740740739E-3</v>
+        <v>0.00719907407407407</v>
       </c>
       <c r="B64" s="1">
-        <v>0.44667824074074075</v>
+        <v>0.446678240740741</v>
       </c>
       <c r="C64">
         <v>194.82</v>
@@ -4754,7 +6652,7 @@
         <v>57.32</v>
       </c>
       <c r="L64">
-        <v>136.41999999999999</v>
+        <v>136.42</v>
       </c>
       <c r="M64">
         <v>415.61</v>
@@ -4787,18 +6685,18 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>7.3148148148148148E-3</v>
+        <v>0.00731481481481481</v>
       </c>
       <c r="B65" s="1">
-        <v>0.44679398148148147</v>
+        <v>0.446793981481481</v>
       </c>
       <c r="C65">
         <v>194.97</v>
       </c>
       <c r="D65">
-        <v>76.260000000000005</v>
+        <v>76.26</v>
       </c>
       <c r="E65">
         <v>14.87</v>
@@ -4840,47 +6738,47 @@
         <v>25.79</v>
       </c>
       <c r="S65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U65" s="2">
         <f>AVERAGE(C59:C65)</f>
-        <v>191.37714285714284</v>
+        <v>191.377142857143</v>
       </c>
       <c r="V65" s="2">
         <f t="shared" ref="V65" si="2">AVERAGE(D59:D65)</f>
-        <v>72.297142857142859</v>
+        <v>72.2971428571429</v>
       </c>
       <c r="W65" s="2">
         <f t="shared" ref="W65" si="3">AVERAGE(E59:E65)</f>
-        <v>13.83714285714286</v>
+        <v>13.8371428571429</v>
       </c>
       <c r="X65" s="2">
         <f t="shared" ref="X65" si="4">AVERAGE(F59:F65)</f>
-        <v>7.6914285714285695</v>
+        <v>7.69142857142857</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" ref="Y65" si="5">AVERAGE(G59:G65)</f>
-        <v>55.175714285714278</v>
+        <v>55.1757142857143</v>
       </c>
       <c r="Z65" s="2">
         <f t="shared" ref="Z65" si="6">AVERAGE(H59:H65)</f>
-        <v>254.65142857142857</v>
+        <v>254.651428571429</v>
       </c>
       <c r="AA65" s="2">
         <f t="shared" ref="AA65" si="7">AVERAGE(I59:I65)</f>
-        <v>106.32571428571428</v>
+        <v>106.325714285714</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" ref="AB65" si="8">AVERAGE(J59:J65)</f>
-        <v>130.98571428571429</v>
+        <v>130.985714285714</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" ref="AC65" si="9">AVERAGE(K59:K65)</f>
-        <v>57.485714285714288</v>
+        <v>57.4857142857143</v>
       </c>
       <c r="AD65" s="2">
         <f t="shared" ref="AD65" si="10">AVERAGE(L59:L65)</f>
-        <v>131.05285714285714</v>
+        <v>131.052857142857</v>
       </c>
       <c r="AE65" s="2">
         <f t="shared" ref="AE65" si="11">AVERAGE(M59:M65)</f>
@@ -4888,33 +6786,33 @@
       </c>
       <c r="AF65" s="2">
         <f t="shared" ref="AF65" si="12">AVERAGE(N59:N65)</f>
-        <v>781.45999999999992</v>
+        <v>781.46</v>
       </c>
       <c r="AG65" s="2">
         <f t="shared" ref="AG65" si="13">AVERAGE(O59:O65)</f>
-        <v>7.9742857142857151</v>
+        <v>7.97428571428572</v>
       </c>
       <c r="AH65" s="2">
         <f t="shared" ref="AH65" si="14">AVERAGE(P59:P65)</f>
-        <v>118.89714285714285</v>
+        <v>118.897142857143</v>
       </c>
       <c r="AI65" s="2">
         <f t="shared" ref="AI65" si="15">AVERAGE(Q59:Q65)</f>
-        <v>27.467142857142854</v>
+        <v>27.4671428571429</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.4305555555555548E-3</v>
+        <v>0.00743055555555555</v>
       </c>
       <c r="B66" s="1">
-        <v>0.44690972222222225</v>
+        <v>0.446909722222222</v>
       </c>
       <c r="C66">
         <v>196.13</v>
       </c>
       <c r="D66">
-        <v>72.180000000000007</v>
+        <v>72.18</v>
       </c>
       <c r="E66">
         <v>14.16</v>
@@ -4971,12 +6869,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.5462962962962966E-3</v>
+        <v>0.0075462962962963</v>
       </c>
       <c r="B67" s="1">
-        <v>0.44702546296296292</v>
+        <v>0.447025462962963</v>
       </c>
       <c r="C67">
         <v>198.18</v>
@@ -5021,7 +6919,7 @@
         <v>119.23</v>
       </c>
       <c r="Q67">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -5039,12 +6937,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.6620370370370366E-3</v>
+        <v>0.00766203703703704</v>
       </c>
       <c r="B68" s="1">
-        <v>0.44714120370370369</v>
+        <v>0.447141203703704</v>
       </c>
       <c r="C68">
         <v>198.66</v>
@@ -5083,7 +6981,7 @@
         <v>799.52</v>
       </c>
       <c r="O68">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="P68">
         <v>119</v>
@@ -5107,12 +7005,12 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.7777777777777767E-3</v>
+        <v>0.00777777777777778</v>
       </c>
       <c r="B69" s="1">
-        <v>0.44725694444444447</v>
+        <v>0.447256944444444</v>
       </c>
       <c r="C69">
         <v>198.42</v>
@@ -5151,7 +7049,7 @@
         <v>800.03</v>
       </c>
       <c r="O69">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="P69">
         <v>118.7</v>
@@ -5160,7 +7058,7 @@
         <v>23.48</v>
       </c>
       <c r="S69" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -5178,12 +7076,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.8935185185185185E-3</v>
+        <v>0.00789351851851852</v>
       </c>
       <c r="B70" s="1">
-        <v>0.44737268518518519</v>
+        <v>0.447372685185185</v>
       </c>
       <c r="C70">
         <v>196.55</v>
@@ -5222,7 +7120,7 @@
         <v>783.87</v>
       </c>
       <c r="O70">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="P70">
         <v>121.18</v>
@@ -5246,12 +7144,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>8.0092592592592594E-3</v>
+        <v>0.00800925925925926</v>
       </c>
       <c r="B71" s="1">
-        <v>0.44748842592592591</v>
+        <v>0.447488425925926</v>
       </c>
       <c r="C71">
         <v>190.06</v>
@@ -5263,7 +7161,7 @@
         <v>14.78</v>
       </c>
       <c r="F71">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="G71">
         <v>57.3</v>
@@ -5290,44 +7188,44 @@
         <v>753.02</v>
       </c>
       <c r="O71">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="P71">
         <v>124.08</v>
       </c>
       <c r="Q71">
-        <v>16.649999999999999</v>
+        <v>16.65</v>
       </c>
       <c r="S71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U71" s="2">
         <f>AVERAGE(C68:C71)</f>
-        <v>195.92250000000001</v>
+        <v>195.9225</v>
       </c>
       <c r="V71" s="2">
         <f t="shared" ref="V71:AI71" si="16">AVERAGE(D68:D71)</f>
-        <v>72.569999999999993</v>
+        <v>72.57</v>
       </c>
       <c r="W71" s="2">
         <f t="shared" si="16"/>
-        <v>14.202500000000001</v>
+        <v>14.2025</v>
       </c>
       <c r="X71" s="2">
         <f t="shared" si="16"/>
-        <v>7.8975000000000009</v>
+        <v>7.8975</v>
       </c>
       <c r="Y71" s="2">
         <f t="shared" si="16"/>
-        <v>56.745000000000005</v>
+        <v>56.745</v>
       </c>
       <c r="Z71" s="2">
         <f t="shared" si="16"/>
-        <v>253.69750000000002</v>
+        <v>253.6975</v>
       </c>
       <c r="AA71" s="2">
         <f t="shared" si="16"/>
-        <v>118.78750000000001</v>
+        <v>118.7875</v>
       </c>
       <c r="AB71" s="2">
         <f t="shared" si="16"/>
@@ -5339,11 +7237,11 @@
       </c>
       <c r="AD71" s="2">
         <f t="shared" si="16"/>
-        <v>127.86750000000001</v>
+        <v>127.8675</v>
       </c>
       <c r="AE71" s="2">
         <f t="shared" si="16"/>
-        <v>435.89250000000004</v>
+        <v>435.8925</v>
       </c>
       <c r="AF71" s="2">
         <f t="shared" si="16"/>
@@ -5351,7 +7249,7 @@
       </c>
       <c r="AG71" s="2">
         <f t="shared" si="16"/>
-        <v>8.4525000000000006</v>
+        <v>8.4525</v>
       </c>
       <c r="AH71" s="2">
         <f t="shared" si="16"/>
@@ -5359,15 +7257,15 @@
       </c>
       <c r="AI71" s="2">
         <f t="shared" si="16"/>
-        <v>20.229999999999997</v>
+        <v>20.23</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>8.1249999999999985E-3</v>
+        <v>0.008125</v>
       </c>
       <c r="B72" s="1">
-        <v>0.44760416666666664</v>
+        <v>0.447604166666667</v>
       </c>
       <c r="C72">
         <v>184.1</v>
@@ -5379,7 +7277,7 @@
         <v>14.79</v>
       </c>
       <c r="F72">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="G72">
         <v>58.1</v>
@@ -5406,7 +7304,7 @@
         <v>752.5</v>
       </c>
       <c r="O72">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="P72">
         <v>128.1</v>
@@ -5415,18 +7313,18 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>8.2407407407407412E-3</v>
+        <v>0.00824074074074074</v>
       </c>
       <c r="B73" s="1">
-        <v>0.44771990740740741</v>
+        <v>0.447719907407407</v>
       </c>
       <c r="C73">
         <v>180.22</v>
       </c>
       <c r="D73">
-        <v>79.010000000000005</v>
+        <v>79.01</v>
       </c>
       <c r="E73">
         <v>14.24</v>
@@ -5438,7 +7336,7 @@
         <v>56.68</v>
       </c>
       <c r="H73">
-        <v>271.60000000000002</v>
+        <v>271.6</v>
       </c>
       <c r="I73">
         <v>118.68</v>
@@ -5459,7 +7357,7 @@
         <v>782.52</v>
       </c>
       <c r="O73">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
       <c r="P73">
         <v>126.64</v>
@@ -5468,12 +7366,12 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>8.3564814814814804E-3</v>
+        <v>0.00835648148148148</v>
       </c>
       <c r="B74" s="1">
-        <v>0.44783564814814819</v>
+        <v>0.447835648148148</v>
       </c>
       <c r="C74">
         <v>178.26</v>
@@ -5497,13 +7395,13 @@
         <v>104.39</v>
       </c>
       <c r="J74">
-        <v>146.19999999999999</v>
+        <v>146.2</v>
       </c>
       <c r="K74">
         <v>61.8</v>
       </c>
       <c r="L74">
-        <v>135.58000000000001</v>
+        <v>135.58</v>
       </c>
       <c r="M74">
         <v>501.07</v>
@@ -5521,18 +7419,18 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.4722222222222213E-3</v>
+        <v>0.00847222222222222</v>
       </c>
       <c r="B75" s="1">
-        <v>0.44795138888888886</v>
+        <v>0.447951388888889</v>
       </c>
       <c r="C75">
         <v>167.03</v>
       </c>
       <c r="D75">
-        <v>70.459999999999994</v>
+        <v>70.46</v>
       </c>
       <c r="E75">
         <v>11.77</v>
@@ -5544,7 +7442,7 @@
         <v>55.61</v>
       </c>
       <c r="H75">
-        <v>302.70999999999998</v>
+        <v>302.71</v>
       </c>
       <c r="I75">
         <v>109.74</v>
@@ -5574,12 +7472,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.5879629629629622E-3</v>
+        <v>0.00858796296296296</v>
       </c>
       <c r="B76" s="1">
-        <v>0.44806712962962963</v>
+        <v>0.44806712962963</v>
       </c>
       <c r="C76">
         <v>158.79</v>
@@ -5627,36 +7525,46 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>